--- a/Test Design Techniques practice - Assignment 1.xlsx
+++ b/Test Design Techniques practice - Assignment 1.xlsx
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -283,19 +283,10 @@
     <t xml:space="preserve">1. Check display price on View Product screen </t>
   </si>
   <si>
-    <t>Verify that the photo list has up to 5 photos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that when the screen is in default status, the first photo is displayed on the big photo frame </t>
   </si>
   <si>
     <t xml:space="preserve">Verify that when the user clicks on another photo, it will be displayed on the big photo frame  </t>
-  </si>
-  <si>
-    <t>Verify that when the first photo is displayed on the big picture frame, the &lt; button will be disabled</t>
-  </si>
-  <si>
-    <t>Verify that when the last photo is displayed on the big picture frame, the &gt; button will be disabled</t>
   </si>
   <si>
     <t>Verify that users can click on &gt; button to view next photo on big picture frame</t>
@@ -324,6 +315,24 @@
   <si>
     <t>Verify that Discounted price is calculated according to the formula: 
 Discounted price = Original price * (1- discount rate)</t>
+  </si>
+  <si>
+    <t>Check display photo list when the user doesn't upload any photo</t>
+  </si>
+  <si>
+    <t>Check display photo list when the user uploads 4 photos</t>
+  </si>
+  <si>
+    <t>Check display photo list when the user uploads 5 photos</t>
+  </si>
+  <si>
+    <t>Check display photo list when the user uploads 6 photos</t>
+  </si>
+  <si>
+    <t>Check status of "&lt;" button when the first photo is displayed on the big picture frame</t>
+  </si>
+  <si>
+    <t>Check status of "&gt;" button when the last photo is displayed on the big picture frame</t>
   </si>
 </sst>
 </file>
@@ -723,6 +732,24 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -740,24 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1085,10 +1094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1097,13 +1106,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1112,9 +1121,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1125,11 +1134,11 @@
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1143,9 +1152,9 @@
       <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1159,9 +1168,9 @@
       <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1172,9 +1181,9 @@
       <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1186,9 +1195,9 @@
       <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -1331,11 +1340,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -1369,11 +1378,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -1385,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="24"/>
@@ -1401,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="28"/>
@@ -1417,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="29"/>
@@ -1433,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="25"/>
@@ -1449,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="29"/>
@@ -1465,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="29"/>
@@ -1477,24 +1486,24 @@
     </row>
     <row r="25" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="32"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" s="31" customFormat="1" ht="14.25">
+    <row r="26" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A26" s="35">
         <f t="shared" ref="A26" ca="1" si="0">IF(OFFSET(A26,-1,0) ="",OFFSET(A26,-2,0)+1,OFFSET(A26,-1,0)+1 )</f>
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="24"/>
@@ -1510,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="28"/>
@@ -1526,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="24"/>
@@ -1542,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="29"/>
@@ -1558,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="25"/>
@@ -1574,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="24"/>
@@ -1590,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="24"/>
@@ -1606,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="25"/>
@@ -1616,12 +1625,14 @@
       <c r="H33" s="1"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9" s="31" customFormat="1" ht="14.25">
+    <row r="34" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A34" s="35">
         <f t="shared" ca="1" si="2"/>
         <v>15</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -1630,12 +1641,14 @@
       <c r="H34" s="1"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9" s="31" customFormat="1" ht="14.25">
+    <row r="35" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A35" s="35">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="25"/>
       <c r="E35" s="29"/>
@@ -1644,12 +1657,14 @@
       <c r="H35" s="1"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" s="31" customFormat="1" ht="14.25">
+    <row r="36" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A36" s="35">
         <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -1772,11 +1787,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -1784,6 +1794,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
